--- a/data/DATI VOV.xlsx
+++ b/data/DATI VOV.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="27795" windowHeight="14130"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="19425" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t>VOV005</t>
   </si>
@@ -33,15 +33,6 @@
     <t>VOV076</t>
   </si>
   <si>
-    <t>età</t>
-  </si>
-  <si>
-    <t>dieta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sesso  </t>
-  </si>
-  <si>
     <t>bmi</t>
   </si>
   <si>
@@ -58,13 +49,49 @@
   </si>
   <si>
     <t>V</t>
+  </si>
+  <si>
+    <t>VOV049</t>
+  </si>
+  <si>
+    <t>VOV066</t>
+  </si>
+  <si>
+    <t>VOV103</t>
+  </si>
+  <si>
+    <t>VOV118 </t>
+  </si>
+  <si>
+    <t>VOV120 </t>
+  </si>
+  <si>
+    <t>VOV138 </t>
+  </si>
+  <si>
+    <t>VOV128</t>
+  </si>
+  <si>
+    <t>VOV086</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>class</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,10 +100,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF201F1E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,9 +141,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -405,111 +451,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E7"/>
+  <dimension ref="A2:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>59.6</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
         <v>24.2</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>37.6</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2">
         <v>19.899999999999999</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>59.7</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2">
         <v>31.1</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>50.1</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2">
         <v>24.8</v>
       </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>54.3</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2">
+        <v>30.8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>21.2</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2">
+        <v>33.1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2">
+        <v>24.6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2">
+        <v>26</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2">
+        <v>25.2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2">
+        <v>21.8</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2">
+        <v>47.7</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2">
+        <v>24</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2">
+        <v>21</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2">
+        <v>26.6</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
